--- a/data/db_source/tag_variable.xlsx
+++ b/data/db_source/tag_variable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B8459-8756-1949-8B29-59E33EA72135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C024D661-453B-064A-8FE8-DAFD4695EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>tag_id</t>
-  </si>
-  <si>
-    <t>tag_13</t>
   </si>
   <si>
     <t>variable_id</t>
   </si>
   <si>
-    <t>tag_1</t>
+    <t>localisation</t>
   </si>
   <si>
-    <t>dataset_1___variable_2</t>
-  </si>
-  <si>
-    <t>dataset_2___variable_1</t>
+    <t>ser_pub_loc___canton</t>
   </si>
 </sst>
 </file>
@@ -390,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -410,23 +404,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
